--- a/台球 赛季 记录表.xlsx
+++ b/台球 赛季 记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanc\AndroidStudioProjects\Dreams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6D105F4D-C5A7-400C-89E8-339750FABDBA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D9F74FDB-7289-41CE-8BF8-938B636F6BC8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>时间</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>国标</t>
+  </si>
+  <si>
+    <t>ME | JUSTIN | LZF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国标混战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 vs 4 vs 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -115,7 +127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -132,6 +144,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,10 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,9 +725,271 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>43259</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>43260</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>43261</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>43262</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>43263</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>43264</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>43265</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>43266</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>43267</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>43268</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>43269</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>43270</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>43271</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>43272</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>43273</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>43274</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>43275</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>43276</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>43277</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>43278</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>43279</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>43280</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>43281</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/台球 赛季 记录表.xlsx
+++ b/台球 赛季 记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanc\AndroidStudioProjects\Dreams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D9F74FDB-7289-41CE-8BF8-938B636F6BC8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A654F9FD-7936-4B49-87AD-45C918930091}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>时间</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>7 vs 4 vs 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YC | JUSTIN | LZF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国标正式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1/0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,8 +487,8 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -878,12 +890,20 @@
       <c r="A33" s="7">
         <v>43272</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7">

--- a/台球 赛季 记录表.xlsx
+++ b/台球 赛季 记录表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanc\AndroidStudioProjects\Dreams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A654F9FD-7936-4B49-87AD-45C918930091}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10906E50-5BD9-497B-9A3B-8E3798874A3F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>时间</t>
   </si>
@@ -48,36 +48,15 @@
     <t>总计</t>
   </si>
   <si>
-    <t>ME VS JUSTIN</t>
-  </si>
-  <si>
-    <t>斯诺克</t>
+    <t>JUSTIN-YC-LZF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国标</t>
-  </si>
-  <si>
-    <t>ME | JUSTIN | LZF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国标混战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 vs 4 vs 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YC | JUSTIN | LZF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国标正式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/1/0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,8 +466,8 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,172 +506,158 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>43236</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="7">
+        <v>43286</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>43287</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>43237</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>43238</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" s="7">
+        <v>43288</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>43239</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="7">
+        <v>43289</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>43240</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="7">
+        <v>43290</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>43241</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="7">
+        <v>43291</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>43242</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="7">
+        <v>43292</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>43243</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5">
-        <v>26.9</v>
-      </c>
-      <c r="E9" s="5">
-        <v>26.9</v>
-      </c>
-      <c r="F9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
+      <c r="A9" s="7">
+        <v>43293</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>43244</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="7">
+        <v>43294</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>43245</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="7">
+        <v>43295</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>43246</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="7">
+        <v>43296</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>43247</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="7">
+        <v>43297</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>43248</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="7">
+        <v>43298</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>43249</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -701,9 +666,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>43250</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -712,9 +675,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>43251</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -727,188 +688,21 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>43259</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>43260</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>43261</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>43262</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>43263</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>43264</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>43265</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>43266</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>43267</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>43268</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>43269</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>43270</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>43271</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>43272</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>43273</v>
-      </c>
+      <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -917,9 +711,7 @@
       <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>43274</v>
-      </c>
+      <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -928,9 +720,7 @@
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>43275</v>
-      </c>
+      <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -939,9 +729,7 @@
       <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>43276</v>
-      </c>
+      <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -950,9 +738,7 @@
       <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>43277</v>
-      </c>
+      <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -961,9 +747,7 @@
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>43278</v>
-      </c>
+      <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -972,9 +756,7 @@
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>43279</v>
-      </c>
+      <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -983,9 +765,7 @@
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <v>43280</v>
-      </c>
+      <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -994,9 +774,7 @@
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>43281</v>
-      </c>
+      <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
